--- a/CSVs/TableS7.xlsx
+++ b/CSVs/TableS7.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.08624468418652209</v>
+        <v>0.08624468418652242</v>
       </c>
       <c r="H2">
-        <v>0.100831554311314</v>
+        <v>0.1008315543113144</v>
       </c>
       <c r="I2">
         <v>1e-07</v>
@@ -489,22 +489,22 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>828.2115060919605</v>
+        <v>828.2115060919641</v>
       </c>
       <c r="D3">
-        <v>3.967374125193103e-182</v>
+        <v>3.967374125185869e-182</v>
       </c>
       <c r="E3">
-        <v>6.347798600308965e-181</v>
+        <v>6.347798600297391e-181</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06959780131680049</v>
+        <v>0.06959780131680016</v>
       </c>
       <c r="H3">
-        <v>0.07904935316646459</v>
+        <v>0.07904935316646419</v>
       </c>
       <c r="I3">
         <v>1e-07</v>
@@ -593,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0.0003794319609820018</v>
+        <v>0.0003794319609825569</v>
       </c>
       <c r="H6">
-        <v>0.000443606637812745</v>
+        <v>0.0004436066378133941</v>
       </c>
       <c r="I6">
         <v>973.8110650692619</v>
@@ -623,10 +623,10 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0.002820681817643944</v>
+        <v>0.002820681817644055</v>
       </c>
       <c r="H7">
-        <v>0.003203737315755363</v>
+        <v>0.003203737315755488</v>
       </c>
       <c r="I7">
         <v>0.0002990691934236199</v>
@@ -653,10 +653,10 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0.00163733077472461</v>
+        <v>0.001637330774724943</v>
       </c>
       <c r="H8">
-        <v>0.001726149199314685</v>
+        <v>0.001726149199315036</v>
       </c>
       <c r="I8">
         <v>0.912016118508248</v>
@@ -671,28 +671,28 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>48.36150766073479</v>
+        <v>48.36150766073115</v>
       </c>
       <c r="D9">
-        <v>3.150881303410178e-11</v>
+        <v>3.150881303415912e-11</v>
       </c>
       <c r="E9">
-        <v>5.041410085456285e-10</v>
+        <v>5.04141008546546e-10</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0.003344643344126874</v>
+        <v>0.003344643344127096</v>
       </c>
       <c r="H9">
-        <v>0.004452424299143092</v>
+        <v>0.004452424299143388</v>
       </c>
       <c r="I9">
-        <v>3.430049386894246e-07</v>
+        <v>3.430049386900486e-07</v>
       </c>
       <c r="J9">
-        <v>2915409.917480676</v>
+        <v>2915409.917475373</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -715,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.542982661237538e-05</v>
+        <v>4.54298266124864e-05</v>
       </c>
       <c r="H10">
-        <v>5.31135347369637e-05</v>
+        <v>5.311353473709352e-05</v>
       </c>
       <c r="I10">
         <v>78.14195645522713</v>
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.001972820855491553</v>
+        <v>0.00197282085549122</v>
       </c>
       <c r="H11">
-        <v>0.002240734758703837</v>
+        <v>0.002240734758703458</v>
       </c>
       <c r="I11">
         <v>0.0005340298125926793</v>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.00117559665089495</v>
+        <v>0.001175596650895172</v>
       </c>
       <c r="H12">
-        <v>0.001239367908418293</v>
+        <v>0.001239367908418527</v>
       </c>
       <c r="I12">
         <v>0.123182751285542</v>
@@ -837,10 +837,10 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>0.0001653768890828022</v>
+        <v>0.0001653768890833573</v>
       </c>
       <c r="H14">
-        <v>0.0001933476704178672</v>
+        <v>0.0001933476704185163</v>
       </c>
       <c r="I14">
         <v>3800.71009173734</v>
@@ -867,10 +867,10 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0.0001354601561281976</v>
+        <v>0.0001354601561276425</v>
       </c>
       <c r="H15">
-        <v>0.0001538559770447443</v>
+        <v>0.0001538559770441137</v>
       </c>
       <c r="I15">
         <v>4711.959695760934</v>
@@ -927,10 +927,10 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>1.693489421461525e-05</v>
+        <v>1.693489421450423e-05</v>
       </c>
       <c r="H17">
-        <v>2.254390879582839e-05</v>
+        <v>2.254390879568059e-05</v>
       </c>
       <c r="I17">
         <v>9628.933264513955</v>
